--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2228.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2228.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274230447674513</v>
+        <v>0.9750741720199585</v>
       </c>
       <c r="B1">
-        <v>2.843574856201541</v>
+        <v>2.077753067016602</v>
       </c>
       <c r="C1">
-        <v>9.066170953274968</v>
+        <v>7.518755912780762</v>
       </c>
       <c r="D1">
-        <v>2.035399735594452</v>
+        <v>2.511236429214478</v>
       </c>
       <c r="E1">
-        <v>1.111939171726229</v>
+        <v>1.376458644866943</v>
       </c>
     </row>
   </sheetData>
